--- a/Opdracht 1/WorldBestSellingCar.xlsx
+++ b/Opdracht 1/WorldBestSellingCar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8928322A-D3EF-4B1E-B452-C96AEECCD619}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FA4672-CB1C-4E9A-A960-A1F949D96B0E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="132">
   <si>
     <t>Toyota Corolla</t>
   </si>
@@ -41,18 +41,6 @@
   </si>
   <si>
     <t>Toyota RAV4</t>
-  </si>
-  <si>
-    <t>Som</t>
-  </si>
-  <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
-    <t>Voorlopig totaal</t>
-  </si>
-  <si>
-    <t>Aantal</t>
   </si>
   <si>
     <t>Volkswagen Tiguan</t>
@@ -816,7 +804,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>539463</v>
@@ -824,7 +812,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>499462</v>
@@ -832,7 +820,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>460904</v>
@@ -840,7 +828,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>454094</v>
@@ -848,7 +836,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>430708</v>
@@ -856,7 +844,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>412930</v>
@@ -864,7 +852,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>386953</v>
@@ -872,7 +860,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>365541</v>
@@ -880,7 +868,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>360243</v>
@@ -888,7 +876,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>354034</v>
@@ -896,7 +884,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>331562</v>
@@ -904,7 +892,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>324175</v>
@@ -912,7 +900,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>320086</v>
@@ -920,7 +908,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>319118</v>
@@ -928,7 +916,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>317790</v>
@@ -936,7 +924,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>312873</v>
@@ -944,7 +932,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>309922</v>
@@ -952,7 +940,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>305654</v>
@@ -960,7 +948,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>302887</v>
@@ -968,7 +956,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>288451</v>
@@ -976,7 +964,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>288333</v>
@@ -984,7 +972,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>282863</v>
@@ -992,7 +980,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>282443</v>
@@ -1000,7 +988,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>282047</v>
@@ -1008,7 +996,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>281134</v>
@@ -1016,7 +1004,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>273514</v>
@@ -1024,7 +1012,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>272891</v>
@@ -1032,7 +1020,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>268645</v>
@@ -1040,7 +1028,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>266735</v>
@@ -1048,7 +1036,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>265927</v>
@@ -1056,7 +1044,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>250507</v>
@@ -1064,7 +1052,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>247163</v>
@@ -1072,7 +1060,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3">
         <v>244517</v>
@@ -1080,7 +1068,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>242929</v>
@@ -1088,7 +1076,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3">
         <v>242418</v>
@@ -1096,7 +1084,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3">
         <v>241590</v>
@@ -1104,7 +1092,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3">
         <v>232045</v>
@@ -1112,7 +1100,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3">
         <v>231136</v>
@@ -1120,7 +1108,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3">
         <v>223204</v>
@@ -1128,7 +1116,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3">
         <v>220954</v>
@@ -1136,7 +1124,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3">
         <v>216379</v>
@@ -1144,7 +1132,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3">
         <v>213847</v>
@@ -1152,7 +1140,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3">
         <v>210079</v>
@@ -1160,7 +1148,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3">
         <v>208618</v>
@@ -1168,7 +1156,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
         <v>208523</v>
@@ -1176,7 +1164,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3">
         <v>206264</v>
@@ -1184,7 +1172,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3">
         <v>203668</v>
@@ -1192,7 +1180,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3">
         <v>203640</v>
@@ -1200,7 +1188,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3">
         <v>203211</v>
@@ -1208,7 +1196,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3">
         <v>200041</v>
@@ -1216,7 +1204,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3">
         <v>198708</v>
@@ -1224,7 +1212,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
         <v>198630</v>
@@ -1232,7 +1220,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
         <v>198252</v>
@@ -1240,7 +1228,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
         <v>196722</v>
@@ -1248,7 +1236,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3">
         <v>188078</v>
@@ -1256,7 +1244,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3">
         <v>185921</v>
@@ -1264,7 +1252,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
         <v>184608</v>
@@ -1272,7 +1260,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3">
         <v>182589</v>
@@ -1280,7 +1268,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3">
         <v>179099</v>
@@ -1288,7 +1276,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3">
         <v>177974</v>
@@ -1296,7 +1284,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3">
         <v>177533</v>
@@ -1304,7 +1292,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3">
         <v>177153</v>
@@ -1312,7 +1300,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3">
         <v>176790</v>
@@ -1320,7 +1308,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3">
         <v>176569</v>
@@ -1328,7 +1316,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3">
         <v>176140</v>
@@ -1336,7 +1324,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3">
         <v>175157</v>
@@ -1344,7 +1332,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3">
         <v>175057</v>
@@ -1352,7 +1340,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3">
         <v>173856</v>
@@ -1360,7 +1348,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3">
         <v>173802</v>
@@ -1368,7 +1356,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3">
         <v>172232</v>
@@ -1376,7 +1364,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3">
         <v>171971</v>
@@ -1384,7 +1372,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3">
         <v>171966</v>
@@ -1392,7 +1380,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3">
         <v>171844</v>
@@ -1400,7 +1388,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3">
         <v>171806</v>
@@ -1408,7 +1396,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3">
         <v>171371</v>
@@ -1416,7 +1404,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3">
         <v>170381</v>
@@ -1424,7 +1412,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3">
         <v>169505</v>
@@ -1432,7 +1420,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3">
         <v>168693</v>
@@ -1440,7 +1428,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3">
         <v>167242</v>
@@ -1448,7 +1436,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3">
         <v>165824</v>
@@ -1456,7 +1444,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3">
         <v>165313</v>
@@ -1464,7 +1452,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3">
         <v>164612</v>
@@ -1472,7 +1460,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3">
         <v>163736</v>
@@ -1480,7 +1468,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3">
         <v>162849</v>
@@ -1488,7 +1476,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3">
         <v>162775</v>
@@ -1496,7 +1484,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3">
         <v>162725</v>
@@ -1504,7 +1492,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3">
         <v>160278</v>
@@ -1512,7 +1500,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3">
         <v>157861</v>
@@ -1520,7 +1508,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3">
         <v>157335</v>
@@ -1528,7 +1516,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3">
         <v>156222</v>
@@ -1536,7 +1524,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3">
         <v>156066</v>
@@ -1544,7 +1532,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3">
         <v>152560</v>
@@ -1552,7 +1540,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3">
         <v>152507</v>
@@ -1560,7 +1548,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3">
         <v>152312</v>
@@ -1568,7 +1556,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3">
         <v>152216</v>
@@ -1582,348 +1570,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5603730-DBFD-4772-A0DC-C6424D3F7DAF}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="40.5859375" customWidth="1"/>
     <col min="3" max="3" width="13.3515625" customWidth="1"/>
+    <col min="7" max="7" width="20.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3">
         <v>203211</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>798368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3">
         <v>231136</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2">
+        <v>250507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3">
         <v>165313</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>667936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3">
         <v>198708</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <f>SUM(B1:B4)</f>
         <v>798368</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4">
+        <v>324404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>250507</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <f>B5</f>
         <v>250507</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1">
+        <f>$D$16</f>
+        <v>1409043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3">
         <v>242418</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6">
+        <v>171971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3">
         <v>242929</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>324022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3">
         <v>182589</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <f>SUM(B6:B8)</f>
         <v>667936</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2683320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3">
         <v>171844</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="1">
+        <v>164612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3">
         <v>152560</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <f>SUM(B9:B10)</f>
         <v>324404</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="1">
+        <v>171371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
         <v>163736</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="1">
+        <v>349499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3">
         <v>177153</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="1">
+        <v>173802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>282863</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="1">
+        <v>273514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3">
         <v>196722</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2083780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" s="3">
         <v>157861</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1339950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3">
         <v>430708</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <f>SUM(B11:B16)</f>
         <v>1409043</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="1">
+        <v>176569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3">
         <v>171971</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D17">
         <v>171971</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1069150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3">
         <v>152216</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="1">
+        <v>663087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3">
         <v>171806</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <f>SUM(B18:B19)</f>
         <v>324022</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1">
+        <v>344144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3">
         <v>223204</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="1">
+        <v>557085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21" s="3">
         <v>162775</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="1">
+        <v>828234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>232045</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1">
+        <v>177974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3">
         <v>210079</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1608760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
         <v>272891</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="1">
+        <v>518854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
         <v>331562</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="1">
+        <v>386953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26">
         <v>722566</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="1">
+        <v>486585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" s="3">
         <v>157335</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="1">
+        <v>152507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3">
         <v>172232</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="1">
+        <v>268645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3">
         <v>198630</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D29">
         <f>SUM(B20:B29)</f>
         <v>2683319</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1">
+        <v>167242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3">
         <v>164612</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D30" s="3">
         <v>164612</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3258370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B31" s="3">
         <v>171371</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D31" s="3">
         <v>171371</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3265140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3">
         <v>177533</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D32" s="3"/>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
+        <v>458583</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3">
         <v>171966</v>
@@ -1935,13 +2117,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3">
         <v>173802</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D34" s="3">
         <v>173802</v>
@@ -1949,13 +2131,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
         <v>273514</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3">
         <v>273514</v>
@@ -1963,7 +2145,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3">
         <v>324175</v>
@@ -1971,7 +2153,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B37" s="3">
         <v>156222</v>
@@ -1987,7 +2169,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3">
         <v>460904</v>
@@ -1995,7 +2177,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3">
         <v>200041</v>
@@ -2003,7 +2185,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3">
         <v>216379</v>
@@ -2011,13 +2193,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3">
         <v>162725</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D42">
         <f>SUM(B36:B42)</f>
@@ -2026,7 +2208,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3">
         <v>173856</v>
@@ -2034,7 +2216,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" s="3">
         <v>412930</v>
@@ -2042,7 +2224,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" s="3">
         <v>179099</v>
@@ -2050,7 +2232,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3">
         <v>208523</v>
@@ -2058,13 +2240,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B47" s="3">
         <v>365541</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D47">
         <f>SUM(B43:B47)</f>
@@ -2073,13 +2255,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B48" s="3">
         <v>176569</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D48" s="3">
         <v>176569</v>
@@ -2087,7 +2269,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3">
         <v>203640</v>
@@ -2095,7 +2277,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B50" s="3">
         <v>281134</v>
@@ -2103,7 +2285,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3">
         <v>185921</v>
@@ -2111,7 +2293,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3">
         <v>184608</v>
@@ -2119,13 +2301,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3">
         <v>213847</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D53">
         <f>SUM(B49:B53)</f>
@@ -2134,7 +2316,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B54" s="3">
         <v>175057</v>
@@ -2142,7 +2324,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3">
         <v>175157</v>
@@ -2150,13 +2332,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B56" s="3">
         <v>312873</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D56">
         <f>SUM(B54:B56)</f>
@@ -2165,7 +2347,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B57" s="3">
         <v>156066</v>
@@ -2173,13 +2355,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B58" s="3">
         <v>188078</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <f>SUM(B57:B58)</f>
@@ -2188,7 +2370,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3">
         <v>309922</v>
@@ -2196,13 +2378,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B60" s="3">
         <v>247163</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D60">
         <f>SUM(B59:B60)</f>
@@ -2211,7 +2393,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B61" s="3">
         <v>317790</v>
@@ -2219,7 +2401,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B62" s="3">
         <v>265927</v>
@@ -2227,13 +2409,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B63" s="3">
         <v>244517</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D63">
         <f>SUM(B61:B63)</f>
@@ -2242,13 +2424,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3">
         <v>177974</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D64" s="3">
         <v>177974</v>
@@ -2256,7 +2438,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B65" s="3">
         <v>168693</v>
@@ -2264,7 +2446,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B66" s="3">
         <v>360243</v>
@@ -2272,7 +2454,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B67" s="3">
         <v>305654</v>
@@ -2280,7 +2462,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B68" s="3">
         <v>203668</v>
@@ -2288,7 +2470,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B69" s="3">
         <v>288451</v>
@@ -2296,13 +2478,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B70" s="3">
         <v>282047</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D70">
         <f>SUM(B65:B70)</f>
@@ -2311,7 +2493,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B71" s="3">
         <v>206264</v>
@@ -2319,7 +2501,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B72" s="3">
         <v>160278</v>
@@ -2327,13 +2509,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B73" s="3">
         <v>152312</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D73">
         <f>SUM(B71:B73)</f>
@@ -2342,13 +2524,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B74" s="3">
         <v>386953</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D74" s="3">
         <v>386953</v>
@@ -2356,7 +2538,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3">
         <v>198252</v>
@@ -2364,13 +2546,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B76" s="3">
         <v>288333</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D76">
         <f>SUM(B75:B76)</f>
@@ -2379,13 +2561,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B77" s="3">
         <v>152507</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D77" s="3">
         <v>152507</v>
@@ -2393,13 +2575,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B78" s="3">
         <v>268645</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D78" s="3">
         <v>268645</v>
@@ -2407,13 +2589,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B79" s="3">
         <v>167242</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D79" s="3">
         <v>167242</v>
@@ -2421,7 +2603,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B80" s="3">
         <v>454094</v>
@@ -2429,7 +2611,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A81" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B81" s="3">
         <v>220954</v>
@@ -2445,7 +2627,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A83" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B83" s="3">
         <v>241590</v>
@@ -2453,7 +2635,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B84" s="3">
         <v>354034</v>
@@ -2461,7 +2643,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3">
         <v>165824</v>
@@ -2477,7 +2659,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B87" s="3">
         <v>176790</v>
@@ -2485,13 +2667,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A88" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B88" s="3">
         <v>266735</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D88">
         <f>SUM(B80:B88)</f>
@@ -2500,7 +2682,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B89" s="3">
         <v>169505</v>
@@ -2516,7 +2698,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A91" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B91" s="3">
         <v>302887</v>
@@ -2524,7 +2706,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A92" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B92" s="3">
         <v>320086</v>
@@ -2532,7 +2714,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3">
         <v>162849</v>
@@ -2540,7 +2722,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A94" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B94" s="3">
         <v>319118</v>
@@ -2548,7 +2730,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A95" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B95" s="3">
         <v>499462</v>
@@ -2556,7 +2738,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A96" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B96" s="3">
         <v>208618</v>
@@ -2564,7 +2746,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B97" s="3">
         <v>170381</v>
@@ -2572,13 +2754,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A98" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B98" s="3">
         <v>539463</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98">
         <f>SUM(B89:B98)</f>
@@ -2587,7 +2769,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A99" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B99" s="3">
         <v>282443</v>
@@ -2595,13 +2777,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A100" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B100" s="3">
         <v>176140</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D100">
         <f>SUM(B99:B100)</f>
